--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1318121.216171897</v>
+        <v>1280084.59999062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779183</v>
+        <v>421727.3537779181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481814</v>
+        <v>7956703.636481811</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77.58972592123457</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.4740383149756</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>174.4097407145716</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>119.8268749798809</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.9131266416084</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.55696361942508</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
         <v>7.293863480540836</v>
@@ -913,10 +913,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.93044878667203</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>92.2549344362514</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.75502769643879</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.38017012637138</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>76.93044878667203</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>153.4237150659565</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>243.3012966300429</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17.16409275057583</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375.1754439797031</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>116.4771171206092</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2252571302024</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>33.62212427930034</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>91.14965015564209</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,7 +1624,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>128.981732669668</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1691,7 +1691,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>54.19080796000306</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -1706,7 +1706,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
-        <v>167.3436609423107</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
         <v>224.6133508632724</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.42020947531577</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.7823671951049</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,7 +1861,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>198.647007479955</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>10.77708785252926</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1979,7 +1979,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U18" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>84.70588823448321</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>171.729853014972</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6265395713028</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>74.54203511469892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>174.6924936692933</v>
+        <v>338.508334017569</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>128.2342301244892</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2490,16 +2490,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>133.39733990973</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>23.0304243403796</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>349.9723234707989</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>413.6097194764729</v>
@@ -2611,19 +2611,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>149.3035003843589</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.69196057755455</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.1466190479589</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>257.7372307738693</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.51342957218341</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.1132277079203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.18312215397116</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>188.2199270855355</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>156.4368584488323</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>180.4031454290151</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>276.0140077052562</v>
       </c>
       <c r="H35" t="n">
-        <v>220.4170531687936</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H36" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T36" t="n">
-        <v>103.7758308662536</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U36" t="n">
         <v>224.6133508632724</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3517,7 +3517,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>288.2070364504849</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>160.1933886396686</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>22.34031300679495</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.95242836275544</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>169.1894457501841</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.6383358272863</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>217.1912228529682</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.69196057755455</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>149.5316031307987</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>295.9590173195643</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>131.6109735812031</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6597934514068</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>169.1186764497905</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6885175222841</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C2" t="n">
-        <v>44.31505699578452</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D2" t="n">
-        <v>44.31505699578452</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E2" t="n">
-        <v>44.31505699578452</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725949</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725949</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="X2" t="n">
-        <v>676.7972192224913</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="Y2" t="n">
-        <v>399.7428683723877</v>
+        <v>44.98099349534252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="C3" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>416.6555789338821</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020686</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N3" t="n">
-        <v>748.0774423727914</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U3" t="n">
-        <v>920.9637740991661</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V3" t="n">
-        <v>686.7125306247669</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W3" t="n">
-        <v>434.1980389581003</v>
+        <v>709.7781903294235</v>
       </c>
       <c r="X3" t="n">
-        <v>227.6711403636777</v>
+        <v>503.251291735001</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252.2782741702153</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C5" t="n">
-        <v>252.2782741702153</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D5" t="n">
-        <v>252.2782741702153</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="E5" t="n">
-        <v>252.2782741702153</v>
+        <v>122.688517522284</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9107353009821</v>
+        <v>115.3209786530508</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9059217617589</v>
+        <v>100.3161651138277</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4582,37 +4582,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>820.0808785163065</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>543.0265276662028</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>543.0265276662028</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y5" t="n">
-        <v>265.9721768160992</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>403.5026004348894</v>
+        <v>115.1295070481882</v>
       </c>
       <c r="C6" t="n">
-        <v>403.5026004348894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>403.5026004348894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>403.5026004348894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.6555789338821</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020686</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N6" t="n">
-        <v>898.5647595314132</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838489</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169108</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348894</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="V6" t="n">
-        <v>403.5026004348894</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="W6" t="n">
-        <v>403.5026004348894</v>
+        <v>321.6564056426107</v>
       </c>
       <c r="X6" t="n">
-        <v>403.5026004348894</v>
+        <v>115.1295070481882</v>
       </c>
       <c r="Y6" t="n">
-        <v>403.5026004348894</v>
+        <v>115.1295070481882</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4749,28 +4749,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>192.1780141986787</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.13522936641</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D8" t="n">
-        <v>820.0808785163065</v>
+        <v>122.688517522284</v>
       </c>
       <c r="E8" t="n">
-        <v>784.0146234619663</v>
+        <v>122.688517522284</v>
       </c>
       <c r="F8" t="n">
-        <v>506.9602726118626</v>
+        <v>115.3209786530508</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9059217617589</v>
+        <v>100.3161651138277</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494323</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007958</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>644.8494452870956</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F9" t="n">
         <v>21.9427045873282</v>
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>29.88839882769005</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>277.9660032696081</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>549.5069725377946</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377946</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>817.3865915151152</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4913,22 +4913,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>942.1617798048379</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>715.2353383228165</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>480.9840948484174</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>228.4696031817507</v>
+        <v>851.3763438815181</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>644.8494452870956</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>644.8494452870956</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695785</v>
+        <v>185.3255671035227</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -5001,13 +5001,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2156.606504616666</v>
+        <v>867.7369770254079</v>
       </c>
       <c r="C11" t="n">
-        <v>1785.914488779351</v>
+        <v>497.0449611880921</v>
       </c>
       <c r="D11" t="n">
-        <v>1425.70768801713</v>
+        <v>497.0449611880921</v>
       </c>
       <c r="E11" t="n">
-        <v>1038.719773112799</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F11" t="n">
-        <v>627.3118302031619</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G11" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5071,22 +5071,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.571599545659</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.571599545659</v>
+        <v>1629.936986240119</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.571599545659</v>
+        <v>1255.329310350049</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.571599545659</v>
+        <v>1255.329310350049</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="F13" t="n">
-        <v>566.1832505730705</v>
+        <v>242.9243201013355</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>242.9243201013355</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>84.67317368717616</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5238,13 +5238,13 @@
         <v>679.5420961591335</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1627.101685997883</v>
+        <v>1671.349215401213</v>
       </c>
       <c r="C14" t="n">
-        <v>1627.101685997883</v>
+        <v>1300.657199563897</v>
       </c>
       <c r="D14" t="n">
-        <v>1266.894885235662</v>
+        <v>1300.657199563897</v>
       </c>
       <c r="E14" t="n">
-        <v>879.9069703313312</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F14" t="n">
-        <v>468.4990274216939</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G14" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5308,22 +5308,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="X14" t="n">
-        <v>2405.287021091449</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="Y14" t="n">
-        <v>2014.694019322524</v>
+        <v>1671.349215401213</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.4220925802833</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C15" t="n">
-        <v>742.6689775021005</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D15" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E15" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F15" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G15" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H15" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L15" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5387,22 +5387,22 @@
         <v>2377.401886754675</v>
       </c>
       <c r="T15" t="n">
-        <v>2208.367885802846</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U15" t="n">
-        <v>1981.485713213681</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V15" t="n">
-        <v>1747.234469739282</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W15" t="n">
-        <v>1494.719978072616</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X15" t="n">
-        <v>1288.193079478193</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y15" t="n">
-        <v>1082.464643701844</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F16" t="n">
-        <v>531.9067209977148</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="G16" t="n">
-        <v>362.8854036347532</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>204.6342572205938</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>66.28740115789881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2485.286380156665</v>
+        <v>1409.411788950115</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H17" t="n">
         <v>209.5242347723812</v>
@@ -5515,19 +5515,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.571599545659</v>
+        <v>1797.004122274756</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.571599545659</v>
+        <v>1797.004122274756</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.571599545659</v>
+        <v>1797.004122274756</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.571599545659</v>
+        <v>1797.004122274756</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E18" t="n">
         <v>501.6810712336537</v>
@@ -5594,25 +5594,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5627,19 +5627,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.2729352580679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>646.2135925865364</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U19" t="n">
-        <v>646.2135925865364</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V19" t="n">
-        <v>646.2135925865364</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W19" t="n">
-        <v>357.2311916901571</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X19" t="n">
-        <v>357.2311916901571</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.2729352580679</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.6102485904496</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C20" t="n">
-        <v>410.9182327531338</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D20" t="n">
-        <v>50.71143199091319</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E20" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
         <v>50.71143199091319</v>
@@ -5752,16 +5752,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M20" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N20" t="n">
         <v>1735.42310089741</v>
@@ -5782,22 +5782,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2535.571599545659</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="U20" t="n">
-        <v>2535.571599545659</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="V20" t="n">
-        <v>2288.474084827172</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="W20" t="n">
-        <v>1934.403259574086</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="X20" t="n">
-        <v>1559.795583684016</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y20" t="n">
-        <v>1169.202581915091</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F22" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J22" t="n">
         <v>50.71143199091319</v>
@@ -5919,7 +5919,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N22" t="n">
         <v>494.2381528619504</v>
@@ -5937,25 +5937,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>389.474847487822</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>100.5639307332544</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V22" t="n">
-        <v>100.5639307332544</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y22" t="n">
-        <v>100.5639307332544</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1132.448770055577</v>
+        <v>721.3189176496677</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.448770055577</v>
+        <v>721.3189176496677</v>
       </c>
       <c r="D23" t="n">
-        <v>1132.448770055577</v>
+        <v>721.3189176496677</v>
       </c>
       <c r="E23" t="n">
-        <v>1132.448770055577</v>
+        <v>721.3189176496677</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
         <v>829.7261648535823</v>
@@ -6028,13 +6028,13 @@
         <v>1486.519595308663</v>
       </c>
       <c r="W23" t="n">
-        <v>1132.448770055577</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="X23" t="n">
-        <v>1132.448770055577</v>
+        <v>1111.911919418593</v>
       </c>
       <c r="Y23" t="n">
-        <v>1132.448770055577</v>
+        <v>721.3189176496677</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
         <v>50.71143199091319</v>
@@ -6068,52 +6068,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S24" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="C25" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="D25" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="E25" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F25" t="n">
-        <v>531.9067209977148</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G25" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
         <v>50.71143199091319</v>
@@ -6180,19 +6180,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1537.674215311274</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="C26" t="n">
-        <v>1537.674215311274</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D26" t="n">
-        <v>1537.674215311274</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E26" t="n">
-        <v>1150.686300406943</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F26" t="n">
         <v>797.1789029616918</v>
@@ -6226,19 +6226,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L26" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6259,19 +6259,19 @@
         <v>2315.859550404841</v>
       </c>
       <c r="U26" t="n">
-        <v>2315.859550404841</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V26" t="n">
-        <v>2315.859550404841</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W26" t="n">
-        <v>2315.859550404841</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="X26" t="n">
-        <v>2315.859550404841</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="Y26" t="n">
-        <v>1925.266548635916</v>
+        <v>1579.278861708645</v>
       </c>
     </row>
     <row r="27">
@@ -6287,19 +6287,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
@@ -6317,13 +6317,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>86.76391742278648</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>86.76391742278648</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V28" t="n">
-        <v>86.76391742278648</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.5242347723812</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="C29" t="n">
-        <v>209.5242347723812</v>
+        <v>1115.827579471347</v>
       </c>
       <c r="D29" t="n">
-        <v>209.5242347723812</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E29" t="n">
-        <v>209.5242347723812</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F29" t="n">
-        <v>209.5242347723812</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6502,13 +6502,13 @@
         <v>1486.519595308663</v>
       </c>
       <c r="W29" t="n">
-        <v>1132.448770055577</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="X29" t="n">
-        <v>757.8410941655072</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.2480923965821</v>
+        <v>1486.519595308663</v>
       </c>
     </row>
     <row r="30">
@@ -6521,22 +6521,22 @@
         <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6554,13 +6554,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.7382531335418</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="F31" t="n">
         <v>50.71143199091319</v>
@@ -6657,16 +6657,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W31" t="n">
-        <v>390.5596952627542</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="X31" t="n">
-        <v>390.5596952627542</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.7382531335418</v>
+        <v>135.0684315587752</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>421.403447828229</v>
+        <v>1226.178958163341</v>
       </c>
       <c r="C32" t="n">
-        <v>50.71143199091319</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="D32" t="n">
-        <v>50.71143199091319</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E32" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G32" t="n">
         <v>50.71143199091319</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2479.831072117406</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2260.119022976587</v>
+        <v>2345.450461075422</v>
       </c>
       <c r="U32" t="n">
-        <v>2260.119022976587</v>
+        <v>2345.450461075422</v>
       </c>
       <c r="V32" t="n">
-        <v>1928.267284064951</v>
+        <v>2345.450461075422</v>
       </c>
       <c r="W32" t="n">
-        <v>1574.196458811866</v>
+        <v>1991.379635822336</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.588782921795</v>
+        <v>1616.771959932266</v>
       </c>
       <c r="Y32" t="n">
-        <v>808.9957811528704</v>
+        <v>1226.178958163341</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7284607271075</v>
+        <v>497.316696735886</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>497.316696735886</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F34" t="n">
         <v>50.71143199091319</v>
@@ -6888,22 +6888,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>497.316696735886</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6311794045659</v>
+        <v>497.316696735886</v>
       </c>
       <c r="V34" t="n">
-        <v>390.6311794045659</v>
+        <v>497.316696735886</v>
       </c>
       <c r="W34" t="n">
-        <v>390.6311794045659</v>
+        <v>497.316696735886</v>
       </c>
       <c r="X34" t="n">
-        <v>390.6311794045659</v>
+        <v>497.316696735886</v>
       </c>
       <c r="Y34" t="n">
-        <v>390.6311794045659</v>
+        <v>497.316696735886</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1163.066539421204</v>
+        <v>1076.708175642572</v>
       </c>
       <c r="C35" t="n">
-        <v>792.3745235838884</v>
+        <v>1076.708175642572</v>
       </c>
       <c r="D35" t="n">
-        <v>432.1677228216678</v>
+        <v>716.5013748803512</v>
       </c>
       <c r="E35" t="n">
-        <v>432.1677228216678</v>
+        <v>329.5134599760204</v>
       </c>
       <c r="F35" t="n">
-        <v>432.1677228216678</v>
+        <v>329.5134599760204</v>
       </c>
       <c r="G35" t="n">
-        <v>432.1677228216678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T35" t="n">
-        <v>2315.859550404841</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U35" t="n">
-        <v>2315.859550404841</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V35" t="n">
-        <v>2315.859550404841</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W35" t="n">
-        <v>2315.859550404841</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.251874514771</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="Y35" t="n">
-        <v>1550.658872745846</v>
+        <v>1464.300508967213</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S36" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="37">
@@ -7128,19 +7128,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W37" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X37" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1829.112184743953</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="C38" t="n">
-        <v>1829.112184743953</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="D38" t="n">
-        <v>1468.905383981733</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E38" t="n">
-        <v>1081.917469077402</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F38" t="n">
-        <v>670.5095261677645</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G38" t="n">
         <v>379.3913075309111</v>
@@ -7174,13 +7174,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7207,19 +7207,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U38" t="n">
-        <v>2535.571599545659</v>
+        <v>2373.760095869226</v>
       </c>
       <c r="V38" t="n">
-        <v>2203.719860634023</v>
+        <v>2373.760095869226</v>
       </c>
       <c r="W38" t="n">
-        <v>2203.719860634023</v>
+        <v>2373.760095869226</v>
       </c>
       <c r="X38" t="n">
-        <v>1829.112184743953</v>
+        <v>2373.760095869226</v>
       </c>
       <c r="Y38" t="n">
-        <v>1829.112184743953</v>
+        <v>1983.167094100301</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D39" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E39" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F39" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H39" t="n">
-        <v>73.27740472504951</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7262,7 +7262,7 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N39" t="n">
         <v>1786.275517555499</v>
@@ -7277,28 +7277,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S39" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T39" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U39" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V39" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W39" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X39" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y39" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>269.590751875883</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C40" t="n">
-        <v>100.5639307332544</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D40" t="n">
-        <v>100.5639307332544</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E40" t="n">
-        <v>100.5639307332544</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F40" t="n">
-        <v>100.5639307332544</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G40" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H40" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I40" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
         <v>50.71143199091319</v>
@@ -7353,31 +7353,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>269.590751875883</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>269.590751875883</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V40" t="n">
-        <v>269.590751875883</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W40" t="n">
-        <v>269.590751875883</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X40" t="n">
-        <v>269.590751875883</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y40" t="n">
-        <v>269.590751875883</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>885.2903723774807</v>
+        <v>1219.799305642197</v>
       </c>
       <c r="C41" t="n">
-        <v>514.5983565401649</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D41" t="n">
-        <v>514.5983565401649</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E41" t="n">
-        <v>514.5983565401649</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F41" t="n">
-        <v>514.5983565401649</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.8107611093842</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7411,7 +7411,7 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
         <v>432.7629010724809</v>
@@ -7438,25 +7438,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U41" t="n">
-        <v>2038.083383361117</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V41" t="n">
-        <v>2038.083383361117</v>
+        <v>1997.984640735764</v>
       </c>
       <c r="W41" t="n">
-        <v>2038.083383361117</v>
+        <v>1997.984640735764</v>
       </c>
       <c r="X41" t="n">
-        <v>1663.475707471047</v>
+        <v>1997.984640735764</v>
       </c>
       <c r="Y41" t="n">
-        <v>1272.882705702122</v>
+        <v>1607.391638966838</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>73.27740472504951</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K42" t="n">
-        <v>181.9669871305373</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L42" t="n">
-        <v>573.239262455199</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O42" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.76391742278648</v>
+        <v>528.5000727946904</v>
       </c>
       <c r="C43" t="n">
-        <v>86.76391742278648</v>
+        <v>359.4732516520618</v>
       </c>
       <c r="D43" t="n">
-        <v>86.76391742278648</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E43" t="n">
-        <v>86.76391742278648</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F43" t="n">
-        <v>86.76391742278648</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G43" t="n">
-        <v>86.76391742278648</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H43" t="n">
-        <v>86.76391742278648</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>86.76391742278648</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
         <v>50.71143199091319</v>
@@ -7593,28 +7593,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>86.76391742278648</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>86.76391742278648</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V43" t="n">
-        <v>86.76391742278648</v>
+        <v>528.5000727946904</v>
       </c>
       <c r="W43" t="n">
-        <v>86.76391742278648</v>
+        <v>528.5000727946904</v>
       </c>
       <c r="X43" t="n">
-        <v>86.76391742278648</v>
+        <v>528.5000727946904</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.76391742278648</v>
+        <v>528.5000727946904</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>988.4273196807753</v>
+        <v>1425.534525540457</v>
       </c>
       <c r="C44" t="n">
-        <v>988.4273196807753</v>
+        <v>1425.534525540457</v>
       </c>
       <c r="D44" t="n">
-        <v>988.4273196807753</v>
+        <v>1065.327724778236</v>
       </c>
       <c r="E44" t="n">
-        <v>601.4394047764445</v>
+        <v>678.3398098739053</v>
       </c>
       <c r="F44" t="n">
-        <v>601.4394047764445</v>
+        <v>678.3398098739053</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6518093456638</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H44" t="n">
-        <v>183.6518093456638</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7678,22 +7678,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T44" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U44" t="n">
-        <v>2061.942217170138</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V44" t="n">
-        <v>1730.090478258502</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W44" t="n">
-        <v>1376.019653005417</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="X44" t="n">
-        <v>1376.019653005417</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="Y44" t="n">
-        <v>1376.019653005417</v>
+        <v>1813.126858865098</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7733,46 +7733,46 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>757.4212114061546</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
         <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7815,7 +7815,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M46" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N46" t="n">
         <v>494.2381528619504</v>
@@ -7830,28 +7830,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>534.431193682965</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>534.431193682965</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U46" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V46" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W46" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863012</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,7 +8057,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
@@ -8066,19 +8066,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>188.5439209688488</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155704</v>
+        <v>256.5416321892494</v>
       </c>
       <c r="N6" t="n">
-        <v>340.5513120381637</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>134.9533660241181</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.5063687605953</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10202,16 +10202,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10910,10 +10910,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>465.3235657432995</v>
       </c>
       <c r="N39" t="n">
-        <v>479.5063687605953</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11062,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740113</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K42" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11387,16 +11387,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44770712425046</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.540966011691978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>266.6409186346783</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>33.93376427960212</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.3412632227677</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>291.9683855996453</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23548,10 +23548,10 @@
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23560,7 +23560,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>241.8798664615014</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>28.3537855385857</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>116.9031311372314</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>33.93376427960204</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.9340427962902</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>129.8862140425644</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>82.63066469671912</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23943,10 +23943,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>175.5182399560914</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>45.78507563443858</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>83.90668195121657</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>81.6885157785874</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>95.73104835770384</v>
       </c>
       <c r="G22" t="n">
         <v>167.3311041893321</v>
@@ -24150,7 +24150,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R22" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>151.4041778934932</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24217,16 +24217,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>232.6013698112475</v>
+        <v>68.78552946297179</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>28.35378553858567</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.93376427960209</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24432,7 +24432,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>195.7182495273886</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>57.32154000974197</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>201.2266166161957</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>116.9031311372314</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24648,22 +24648,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>250.400616309861</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>227.5697909434362</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>98.86750198072912</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>62.64559183762108</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
@@ -24897,7 +24897,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.63544615984796</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24967,16 +24967,16 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>122.3103454998969</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>29.2950015638751</v>
       </c>
       <c r="U32" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>81.68851577858739</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>10.89969448236999</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25128,10 +25128,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>45.54306757917709</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>137.5957117712167</v>
       </c>
       <c r="H35" t="n">
-        <v>104.9760236158043</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>91.92161561464286</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.38258471932944</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25368,10 +25368,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>125.402683025988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>91.18477126268718</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25572,7 +25572,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>213.9937846454367</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25614,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>56.95091418212516</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25636,16 +25636,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>279.7547409573116</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
         <v>217.5149286494106</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>111.3419986695511</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
-        <v>41.22751706926217</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25803,13 +25803,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>13.66201317736326</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>103.4047479361405</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25870,7 +25870,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>117.6507021569086</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>25.61370117245031</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26046,7 +26046,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
-        <v>4.619849419485082</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>57.02168348251874</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982536.1664596028</v>
+        <v>982536.1664596027</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762684</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762684</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762685</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762684</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672157.8071762684</v>
+        <v>672157.8071762683</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762685</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672157.8071762683</v>
+        <v>672157.8071762684</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>468003.6599535884</v>
+      </c>
+      <c r="C2" t="n">
         <v>468003.6599535885</v>
       </c>
-      <c r="C2" t="n">
-        <v>468003.6599535884</v>
-      </c>
       <c r="D2" t="n">
-        <v>468003.6599535886</v>
+        <v>468003.6599535885</v>
       </c>
       <c r="E2" t="n">
-        <v>315500.1735876873</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="F2" t="n">
-        <v>315500.1735876872</v>
+        <v>315500.173587687</v>
       </c>
       <c r="G2" t="n">
-        <v>315500.1735876872</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="H2" t="n">
         <v>315500.1735876871</v>
@@ -26343,19 +26343,19 @@
         <v>315500.1735876871</v>
       </c>
       <c r="L2" t="n">
-        <v>315500.173587687</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="M2" t="n">
+        <v>315500.1735876871</v>
+      </c>
+      <c r="N2" t="n">
+        <v>315500.1735876871</v>
+      </c>
+      <c r="O2" t="n">
+        <v>315500.1735876871</v>
+      </c>
+      <c r="P2" t="n">
         <v>315500.1735876872</v>
-      </c>
-      <c r="N2" t="n">
-        <v>315500.1735876872</v>
-      </c>
-      <c r="O2" t="n">
-        <v>315500.1735876872</v>
-      </c>
-      <c r="P2" t="n">
-        <v>315500.1735876873</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808627</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853742</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>293256.9802362564</v>
       </c>
       <c r="C4" t="n">
-        <v>293256.9802362564</v>
+        <v>293256.9802362565</v>
       </c>
       <c r="D4" t="n">
         <v>293256.9802362565</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32523.81186322286</v>
+        <v>32523.81186322267</v>
       </c>
       <c r="C6" t="n">
-        <v>124442.6242309625</v>
+        <v>124442.6242309626</v>
       </c>
       <c r="D6" t="n">
-        <v>124442.6242309627</v>
+        <v>124442.6242309626</v>
       </c>
       <c r="E6" t="n">
-        <v>-113903.7677705624</v>
+        <v>-120534.3541342974</v>
       </c>
       <c r="F6" t="n">
-        <v>242285.6621161177</v>
+        <v>235655.0757523826</v>
       </c>
       <c r="G6" t="n">
-        <v>242285.6621161177</v>
+        <v>235655.0757523827</v>
       </c>
       <c r="H6" t="n">
-        <v>242285.6621161176</v>
+        <v>235655.0757523828</v>
       </c>
       <c r="I6" t="n">
-        <v>242285.6621161175</v>
+        <v>235655.0757523827</v>
       </c>
       <c r="J6" t="n">
-        <v>170520.9496280314</v>
+        <v>163890.3632642965</v>
       </c>
       <c r="K6" t="n">
-        <v>242285.6621161177</v>
+        <v>235655.0757523828</v>
       </c>
       <c r="L6" t="n">
-        <v>242285.6621161175</v>
+        <v>235655.0757523828</v>
       </c>
       <c r="M6" t="n">
-        <v>152669.6378175803</v>
+        <v>146039.0514538454</v>
       </c>
       <c r="N6" t="n">
-        <v>242285.6621161177</v>
+        <v>235655.0757523828</v>
       </c>
       <c r="O6" t="n">
-        <v>242285.6621161177</v>
+        <v>235655.0757523828</v>
       </c>
       <c r="P6" t="n">
-        <v>242285.6621161178</v>
+        <v>235655.0757523829</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="I3" t="n">
         <v>309.705174430311</v>
@@ -26779,7 +26779,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416026</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>289.3953697577081</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>109.0591832075437</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>50.24743635262965</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>130.1624717701192</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -27599,7 +27599,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>107.1794502458072</v>
+        <v>201.7145598394887</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.15944637197</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,7 +27624,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>261.2134546014813</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27675,10 +27675,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>54.2494141809168</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27697,7 +27697,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>78.77064949114958</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27706,16 +27706,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>98.7512043871105</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27757,10 +27757,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -27794,10 +27794,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>163.0109775434109</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>82.32092541299585</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>261.2134546014813</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27918,7 +27918,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27934,16 +27934,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27985,16 +27985,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>44.95881684231216</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.688050119957126</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>131.8414737639435</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28073,7 +28073,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>121.9538599636406</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,10 +32478,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
@@ -32490,22 +32490,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S20" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I21" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
@@ -32563,7 +32563,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S21" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
@@ -32633,37 +32633,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L22" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P22" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H44" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
@@ -34374,10 +34374,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L44" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M44" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N44" t="n">
         <v>222.1566574333125</v>
@@ -34386,22 +34386,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P44" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S44" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I45" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
@@ -34459,7 +34459,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N45" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O45" t="n">
         <v>158.4960056351046</v>
@@ -34468,19 +34468,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R45" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S45" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T45" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H46" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I46" t="n">
         <v>16.79515929533556</v>
@@ -34529,37 +34529,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M46" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P46" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R46" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T46" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
@@ -34786,19 +34786,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>60.48575168759884</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>117.9609491152816</v>
+      </c>
+      <c r="N6" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N6" t="n">
-        <v>212.4931427569138</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.557963024118129</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35263,16 +35263,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299612</v>
@@ -35509,7 +35509,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35740,13 +35740,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P15" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
         <v>248.2184001629003</v>
@@ -35974,7 +35974,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -35983,7 +35983,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P20" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M21" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,7 +36448,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
@@ -36457,7 +36457,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>524.7048705976756</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37159,7 +37159,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37396,7 +37396,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M39" t="n">
-        <v>514.5419032905515</v>
+        <v>495.5322027338511</v>
       </c>
       <c r="N39" t="n">
-        <v>524.7048705976756</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37782,7 +37782,7 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K41" t="n">
-        <v>280.8981351873249</v>
+        <v>280.8981351873248</v>
       </c>
       <c r="L41" t="n">
         <v>400.9729937182839</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K42" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M44" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N44" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O44" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P44" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
@@ -38192,7 +38192,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P46" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
